--- a/EXCEL/class notes/day7 vlookup/Vlookup Basic.xlsx
+++ b/EXCEL/class notes/day7 vlookup/Vlookup Basic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Kamal\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data-analyst\EXCEL\class notes\day7 vlookup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159C72D6-254F-45EF-8D89-6DE1DEEDC94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397DFA5E-077D-400F-85E5-4605E700AD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="824" firstSheet="2" activeTab="4" xr2:uid="{20B15D0C-CB86-4A05-82F5-505530312088}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="824" firstSheet="2" activeTab="4" xr2:uid="{20B15D0C-CB86-4A05-82F5-505530312088}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Vlookup" sheetId="6" r:id="rId1"/>
@@ -27,6 +27,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1012,7 +1021,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1335,9 +1344,9 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +1357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="59">
         <v>1001</v>
       </c>
@@ -1363,7 +1372,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="78">
-        <f t="shared" ref="F2:H2" si="0">MATCH(F$4,$A$1:$C$1,0)</f>
+        <f t="shared" ref="F2:G2" si="0">MATCH(F$4,$A$1:$C$1,0)</f>
         <v>2</v>
       </c>
       <c r="G2" s="78">
@@ -1375,7 +1384,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="59">
         <v>1002</v>
       </c>
@@ -1389,7 +1398,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="59">
         <v>1003</v>
       </c>
@@ -1412,7 +1421,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="59">
         <v>1004</v>
       </c>
@@ -1441,7 +1450,7 @@
         <v>Nme7</v>
       </c>
       <c r="K5" s="21" t="str">
-        <f t="shared" ref="K5:S6" si="1">VLOOKUP(K$7,$A$2:$C$11,2,0)</f>
+        <f t="shared" ref="K5:S5" si="1">VLOOKUP(K$7,$A$2:$C$11,2,0)</f>
         <v>Nme8</v>
       </c>
       <c r="L5" s="21" t="str">
@@ -1477,7 +1486,7 @@
         <v>Nme2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="77">
         <v>1005</v>
       </c>
@@ -1542,7 +1551,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="59">
         <v>1006</v>
       </c>
@@ -1597,7 +1606,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="59">
         <v>1007</v>
       </c>
@@ -1619,7 +1628,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="59">
         <v>1008</v>
       </c>
@@ -1650,7 +1659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="59">
         <v>1009</v>
       </c>
@@ -1686,7 +1695,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="21"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="59">
         <v>1010</v>
       </c>
@@ -1724,7 +1733,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E12" s="21">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -1741,7 +1750,7 @@
         <v>16</v>
       </c>
       <c r="J12" s="54" t="str">
-        <f t="shared" ref="I12:J20" si="5">VLOOKUP($K12,$A$1:$C$11,2,0)</f>
+        <f t="shared" ref="J12:J20" si="5">VLOOKUP($K12,$A$1:$C$11,2,0)</f>
         <v>Nme7</v>
       </c>
       <c r="K12" s="60">
@@ -1753,7 +1762,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E13" s="21">
         <f t="shared" si="2"/>
         <v>86</v>
@@ -1782,7 +1791,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E14" s="21">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -1811,7 +1820,7 @@
       <c r="N14" s="11"/>
       <c r="O14" s="12"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="I15" s="54">
         <f t="shared" si="4"/>
         <v>75</v>
@@ -1829,7 +1838,7 @@
       <c r="N15" s="11"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="I16" s="54">
         <f t="shared" si="4"/>
         <v>36</v>
@@ -1847,7 +1856,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="9:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I17" s="54">
         <f t="shared" si="4"/>
         <v>54</v>
@@ -1865,7 +1874,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="9:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I18" s="54">
         <f t="shared" si="4"/>
         <v>43</v>
@@ -1883,7 +1892,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="9:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="9:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I19" s="54">
         <f t="shared" si="4"/>
         <v>86</v>
@@ -1901,7 +1910,7 @@
       <c r="N19" s="46"/>
       <c r="O19" s="47"/>
     </row>
-    <row r="20" spans="9:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="9:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I20" s="54">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -1931,9 +1940,9 @@
       <selection activeCell="K6" sqref="K6:Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1944,7 +1953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>1001</v>
       </c>
@@ -1967,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
         <v>1002</v>
       </c>
@@ -1981,7 +1990,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
         <v>1003</v>
       </c>
@@ -2001,7 +2010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17">
         <v>1004</v>
       </c>
@@ -2050,7 +2059,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17">
         <v>1005</v>
       </c>
@@ -2059,7 +2068,7 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" ref="C6:C11" ca="1" si="1">RANDBETWEEN(1,100)</f>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
@@ -2080,7 +2089,7 @@
       <c r="R6" s="55"/>
       <c r="S6" s="55"/>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17">
         <v>1006</v>
       </c>
@@ -2109,7 +2118,7 @@
       <c r="R7" s="55"/>
       <c r="S7" s="55"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>1007</v>
       </c>
@@ -2118,7 +2127,7 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
@@ -2126,7 +2135,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>1008</v>
       </c>
@@ -2135,7 +2144,7 @@
       </c>
       <c r="C9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
@@ -2143,7 +2152,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>1009</v>
       </c>
@@ -2152,7 +2161,7 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
@@ -2160,7 +2169,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18">
         <v>1010</v>
       </c>
@@ -2169,7 +2178,7 @@
       </c>
       <c r="C11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
@@ -2177,21 +2186,21 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="17">
         <v>1010</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
       <c r="G13" s="17">
         <v>1006</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="18">
@@ -2211,15 +2220,15 @@
       <selection activeCell="H3" sqref="H3:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="10.453125" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2242,7 +2251,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>1001</v>
       </c>
@@ -2282,7 +2291,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="17">
         <v>1002</v>
       </c>
@@ -2293,11 +2302,11 @@
         <v>55</v>
       </c>
       <c r="D3" s="21" t="str">
-        <f t="shared" ref="D2:D11" si="0">IF(C3&lt;35,"Fail","Pass")</f>
+        <f t="shared" ref="D3:D11" si="0">IF(C3&lt;35,"Fail","Pass")</f>
         <v>Pass</v>
       </c>
       <c r="E3" s="5" t="str">
-        <f t="shared" ref="E2:E11" si="1">IF(C3&lt;35,"Fail",IF(C3&lt;60,"Pass",IF(C3&lt;75,"First class","Disctinction")))</f>
+        <f t="shared" ref="E3:E11" si="1">IF(C3&lt;35,"Fail",IF(C3&lt;60,"Pass",IF(C3&lt;75,"First class","Disctinction")))</f>
         <v>Pass</v>
       </c>
       <c r="F3" s="5" t="str">
@@ -2322,7 +2331,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
         <v>1003</v>
       </c>
@@ -2349,7 +2358,7 @@
         <v>B</v>
       </c>
       <c r="H4" s="75" t="str">
-        <f t="shared" ref="H3:H11" si="4">VLOOKUP($C4,$M$8:$N$14,2,1)</f>
+        <f t="shared" ref="H4:H11" si="4">VLOOKUP($C4,$M$8:$N$14,2,1)</f>
         <v>B</v>
       </c>
       <c r="M4" s="27">
@@ -2362,7 +2371,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <v>1004</v>
       </c>
@@ -2408,7 +2417,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>1005</v>
       </c>
@@ -2445,7 +2454,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>1006</v>
       </c>
@@ -2476,7 +2485,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>1007</v>
       </c>
@@ -2513,7 +2522,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>1008</v>
       </c>
@@ -2556,7 +2565,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>1009</v>
       </c>
@@ -2600,7 +2609,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18">
         <v>1010</v>
       </c>
@@ -2638,7 +2647,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="M12" s="57">
         <f t="shared" si="5"/>
         <v>70</v>
@@ -2647,7 +2656,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>13</v>
       </c>
@@ -2663,7 +2672,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J14" s="26" t="s">
         <v>19</v>
       </c>
@@ -2678,7 +2687,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J15" s="26" t="s">
         <v>24</v>
       </c>
@@ -2686,7 +2695,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>15</v>
       </c>
@@ -2697,7 +2706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="10:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J17" s="26" t="s">
         <v>27</v>
       </c>
@@ -2719,9 +2728,9 @@
       <selection sqref="A1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
@@ -2756,7 +2765,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="67" t="s">
         <v>1</v>
       </c>
@@ -2791,7 +2800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="68" t="s">
         <v>2</v>
       </c>
@@ -2809,34 +2818,34 @@
       </c>
       <c r="F3" s="3">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="G3" s="3">
         <v>97</v>
       </c>
       <c r="H3" s="3">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I3" s="69">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J3" s="3">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="K3" s="4">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>2</v>
       </c>
@@ -2847,7 +2856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="29">
         <f>HLOOKUP($C9,$A$1:$K$3,3,0)</f>
         <v>10</v>
@@ -2893,10 +2902,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="29">
         <f t="shared" ref="A10:A18" ca="1" si="0">HLOOKUP($C10,$A$1:$K$3,3,0)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10" s="29" t="str">
         <f t="shared" ref="B10:B18" si="1">HLOOKUP($C10,$A$1:$K$3,2,0)</f>
@@ -2914,11 +2923,11 @@
       </c>
       <c r="G10" s="55">
         <f t="shared" ref="G10:O10" ca="1" si="2">HLOOKUP(G$9,$A$1:$K$3,3,0)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H10" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I10" s="55">
         <f t="shared" si="2"/>
@@ -2926,7 +2935,7 @@
       </c>
       <c r="J10" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K10" s="55">
         <f t="shared" si="2"/>
@@ -2934,11 +2943,11 @@
       </c>
       <c r="L10" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="M10" s="55">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="N10" s="55">
         <f t="shared" si="2"/>
@@ -2953,10 +2962,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B11" s="29" t="str">
         <f t="shared" si="1"/>
@@ -2973,7 +2982,7 @@
         <v>Ram4</v>
       </c>
       <c r="G11" s="55" t="str">
-        <f t="shared" ref="G10:O11" si="3">HLOOKUP(G$9,$A$1:$K$3,2,0)</f>
+        <f t="shared" ref="G11:O11" si="3">HLOOKUP(G$9,$A$1:$K$3,2,0)</f>
         <v>Ram7</v>
       </c>
       <c r="H11" s="55" t="str">
@@ -3013,7 +3022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="29">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3026,10 +3035,10 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13" s="29" t="str">
         <f t="shared" si="1"/>
@@ -3039,7 +3048,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="29">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -3055,10 +3064,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="B15" s="29" t="str">
         <f t="shared" si="1"/>
@@ -3068,10 +3077,10 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="B16" s="29" t="str">
         <f t="shared" si="1"/>
@@ -3081,7 +3090,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="29">
         <f t="shared" si="0"/>
         <v>97</v>
@@ -3094,7 +3103,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="29">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -3117,20 +3126,20 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E8"/>
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" customWidth="1"/>
-    <col min="9" max="9" width="3.6328125" customWidth="1"/>
-    <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.81640625" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.77734375" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3153,7 +3162,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>1001</v>
       </c>
@@ -3167,7 +3176,10 @@
         <f>HLOOKUP($C2,$M$16:$S$17,2,1)</f>
         <v>A+</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5" t="str">
+        <f>HLOOKUP($C2,$M$8:$P$9,2,1)</f>
+        <v>Disctinction</v>
+      </c>
       <c r="F2" s="5" t="str">
         <f>IF(C2&lt;35,"Fail",IF(C2&lt;60,"Pass",IF(C2&lt;75,"First class","Disctinction")))</f>
         <v>Disctinction</v>
@@ -3181,7 +3193,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="17">
         <v>1002</v>
       </c>
@@ -3195,21 +3207,24 @@
         <f t="shared" ref="D3:D11" si="0">HLOOKUP($C3,$M$16:$S$17,2,1)</f>
         <v>C+</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="str">
+        <f t="shared" ref="E3:E11" si="1">HLOOKUP($C3,$M$8:$P$9,2,1)</f>
+        <v>Pass</v>
+      </c>
       <c r="F3" s="5" t="str">
-        <f t="shared" ref="F3:F11" si="1">IF(C3&lt;35,"Fail",IF(C3&lt;60,"Pass",IF(C3&lt;75,"First class","Disctinction")))</f>
+        <f t="shared" ref="F3:F11" si="2">IF(C3&lt;35,"Fail",IF(C3&lt;60,"Pass",IF(C3&lt;75,"First class","Disctinction")))</f>
         <v>Pass</v>
       </c>
       <c r="G3" s="21" t="str">
-        <f t="shared" ref="G3:G11" si="2">IF(C3&lt;35,"Fail","Pass")</f>
+        <f t="shared" ref="G3:G11" si="3">IF(C3&lt;35,"Fail","Pass")</f>
         <v>Pass</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H11" si="3">VLOOKUP($C3,$M$8:$N$14,2,1)</f>
+        <f t="shared" ref="H3:H11" si="4">VLOOKUP($C3,$M$8:$N$14,2,1)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
         <v>1003</v>
       </c>
@@ -3223,21 +3238,24 @@
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="str">
+      <c r="E4" s="5" t="str">
         <f t="shared" si="1"/>
         <v>First class</v>
       </c>
+      <c r="F4" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>First class</v>
+      </c>
       <c r="G4" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
       <c r="H4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <v>1004</v>
       </c>
@@ -3251,17 +3269,20 @@
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="str">
+      <c r="E5" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fail</v>
       </c>
+      <c r="F5" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fail</v>
+      </c>
       <c r="G5" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Fail</v>
       </c>
       <c r="H5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="J5" t="s">
@@ -3271,7 +3292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>1005</v>
       </c>
@@ -3279,24 +3300,27 @@
         <v>7</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" ref="C6:C11" ca="1" si="4">RANDBETWEEN(1,100)</f>
-        <v>71</v>
+        <f t="shared" ref="C6:C11" ca="1" si="5">RANDBETWEEN(1,100)</f>
+        <v>58</v>
       </c>
       <c r="D6" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B+</v>
-      </c>
-      <c r="E6" s="5"/>
+        <v>C+</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Pass</v>
+      </c>
       <c r="F6" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>First class</v>
-      </c>
-      <c r="G6" s="21" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Pass</v>
       </c>
+      <c r="G6" s="21" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Pass</v>
+      </c>
       <c r="H6">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>35</v>
       </c>
       <c r="J6" t="s">
@@ -3306,7 +3330,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>1006</v>
       </c>
@@ -3320,21 +3344,24 @@
         <f t="shared" si="0"/>
         <v>A+</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="str">
+      <c r="E7" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Disctinction</v>
       </c>
+      <c r="F7" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Disctinction</v>
+      </c>
       <c r="G7" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
       <c r="H7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>1007</v>
       </c>
@@ -3342,24 +3369,27 @@
         <v>9</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>54</v>
       </c>
       <c r="D8" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B+</v>
-      </c>
-      <c r="E8" s="5"/>
+        <v>C+</v>
+      </c>
+      <c r="E8" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Pass</v>
+      </c>
       <c r="F8" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Disctinction</v>
-      </c>
-      <c r="G8" s="21" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Pass</v>
       </c>
+      <c r="G8" s="21" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Pass</v>
+      </c>
       <c r="H8">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>35</v>
       </c>
       <c r="M8" s="27">
@@ -3375,7 +3405,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>1008</v>
       </c>
@@ -3389,17 +3419,20 @@
         <f t="shared" si="0"/>
         <v>B+</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="str">
+      <c r="E9" s="5" t="str">
         <f t="shared" si="1"/>
         <v>First class</v>
       </c>
+      <c r="F9" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>First class</v>
+      </c>
       <c r="G9" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
       <c r="H9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="J9" t="s">
@@ -3421,7 +3454,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>1009</v>
       </c>
@@ -3429,24 +3462,27 @@
         <v>11</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>79</v>
       </c>
       <c r="D10" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>B+</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Disctinction</v>
+      </c>
       <c r="F10" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>First class</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>Disctinction</v>
       </c>
       <c r="G10" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>Pass</v>
       </c>
       <c r="H10">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>35</v>
       </c>
       <c r="J10" t="s">
@@ -3456,7 +3492,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18">
         <v>1010</v>
       </c>
@@ -3464,34 +3500,37 @@
         <v>12</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>34</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>91</v>
       </c>
       <c r="D11" s="21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
-      </c>
-      <c r="E11" s="5"/>
+        <v>A+</v>
+      </c>
+      <c r="E11" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Disctinction</v>
+      </c>
       <c r="F11" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Fail</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>Disctinction</v>
       </c>
       <c r="G11" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Fail</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Pass</v>
       </c>
       <c r="H11">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="19"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J14" s="26" t="s">
         <v>19</v>
       </c>
@@ -3499,7 +3538,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J15" s="26" t="s">
         <v>24</v>
       </c>
@@ -3507,7 +3546,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>15</v>
       </c>
@@ -3544,7 +3583,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="10:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J17" s="26" t="s">
         <v>27</v>
       </c>
@@ -3587,9 +3626,9 @@
       <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -3603,13 +3642,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="6">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="C2" s="16">
         <v>1001</v>
@@ -3627,25 +3666,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:B11" ca="1" si="1">RANDBETWEEN(1,100)</f>
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="C3" s="17">
         <v>1002</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C4" s="17">
         <v>1003</v>
@@ -3654,25 +3693,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="C5" s="17">
         <v>1004</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C6" s="17">
         <v>1005</v>
@@ -3696,20 +3735,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C7" s="17">
         <v>1006</v>
       </c>
       <c r="E7" s="71">
         <f ca="1">INDEX($A$1:$C$11,$I7,E$2)</f>
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="F7" s="71" t="str">
         <f>INDEX($A$1:$C$11,$I7,F$2)</f>
@@ -3724,7 +3763,7 @@
       </c>
       <c r="K7" s="10">
         <f ca="1">INDEX($A$1:$C$11,MATCH($M7,$C$1:$C$11,0),MATCH(K$6,$A$1:$C$1,0))</f>
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="L7" s="10" t="str">
         <f>INDEX($A$1:$C$11,MATCH($M7,$C$1:$C$11,0),MATCH(L$6,$A$1:$C$1,0))</f>
@@ -3734,20 +3773,20 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C8" s="17">
         <v>1007</v>
       </c>
       <c r="E8" s="71">
         <f t="shared" ref="E8:F16" ca="1" si="2">INDEX($A$1:$C$11,$I8,E$2)</f>
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F8" s="71" t="str">
         <f t="shared" si="2"/>
@@ -3762,7 +3801,7 @@
       </c>
       <c r="K8" s="10">
         <f t="shared" ref="K8:L16" ca="1" si="4">INDEX($A$1:$C$11,MATCH($M8,$C$1:$C$11,0),MATCH(K$6,$A$1:$C$1,0))</f>
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L8" s="10" t="str">
         <f t="shared" si="4"/>
@@ -3772,20 +3811,20 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="C9" s="17">
         <v>1008</v>
       </c>
       <c r="E9" s="71">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="F9" s="71" t="str">
         <f t="shared" si="2"/>
@@ -3800,7 +3839,7 @@
       </c>
       <c r="K9" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="L9" s="10" t="str">
         <f t="shared" si="4"/>
@@ -3810,20 +3849,20 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C10" s="17">
         <v>1009</v>
       </c>
       <c r="E10" s="71">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="F10" s="71" t="str">
         <f t="shared" si="2"/>
@@ -3838,7 +3877,7 @@
       </c>
       <c r="K10" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="L10" s="10" t="str">
         <f t="shared" si="4"/>
@@ -3848,20 +3887,20 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C11" s="18">
         <v>1010</v>
       </c>
       <c r="E11" s="71">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="F11" s="71" t="str">
         <f t="shared" si="2"/>
@@ -3876,7 +3915,7 @@
       </c>
       <c r="K11" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="L11" s="10" t="str">
         <f t="shared" si="4"/>
@@ -3886,10 +3925,10 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E12" s="71">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F12" s="71" t="str">
         <f t="shared" si="2"/>
@@ -3904,7 +3943,7 @@
       </c>
       <c r="K12" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="L12" s="10" t="str">
         <f t="shared" si="4"/>
@@ -3914,13 +3953,13 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="71">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="F13" s="71" t="str">
         <f t="shared" si="2"/>
@@ -3935,7 +3974,7 @@
       </c>
       <c r="K13" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="L13" s="10" t="str">
         <f t="shared" si="4"/>
@@ -3945,10 +3984,10 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E14" s="71">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="F14" s="71" t="str">
         <f t="shared" si="2"/>
@@ -3963,7 +4002,7 @@
       </c>
       <c r="K14" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="L14" s="10" t="str">
         <f t="shared" si="4"/>
@@ -3973,10 +4012,10 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E15" s="71">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="F15" s="71" t="str">
         <f t="shared" si="2"/>
@@ -3991,7 +4030,7 @@
       </c>
       <c r="K15" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="L15" s="10" t="str">
         <f t="shared" si="4"/>
@@ -4001,13 +4040,13 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="71">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="F16" s="71" t="str">
         <f t="shared" si="2"/>
@@ -4022,7 +4061,7 @@
       </c>
       <c r="K16" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="L16" s="10" t="str">
         <f t="shared" si="4"/>
@@ -4045,12 +4084,12 @@
       <selection activeCell="J12" sqref="J12:S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="7.6328125" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C1" s="23"/>
       <c r="E1" s="8" t="s">
         <v>1</v>
@@ -4086,7 +4125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -4095,46 +4134,46 @@
       </c>
       <c r="F2" s="6">
         <f t="shared" ref="F2:O2" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H2" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="M2" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="O2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E3" s="7" t="s">
         <v>0</v>
       </c>
@@ -4169,13 +4208,13 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
@@ -4195,10 +4234,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="71">
         <f ca="1">INDEX($E$1:$O$3,MATCH(A$6,$E$1:$E$3,0),MATCH($C7,$E$3:$O$3,0))</f>
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B7" s="71" t="str">
         <f>INDEX($E$1:$O$3,MATCH(B$6,$E$1:$E$3,0),MATCH($C7,$E$3:$O$3,0))</f>
@@ -4209,7 +4248,7 @@
       </c>
       <c r="E7" s="73">
         <f ca="1">INDEX($E$1:$O$3,MATCH(E$6,$E$1:$E$3,0),MATCH($G7,$E$3:$O$3,0))</f>
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F7" s="73" t="str">
         <f>INDEX($E$1:$O$3,MATCH(F$6,$E$1:$E$3,0),MATCH($G7,$E$3:$O$3,0))</f>
@@ -4223,49 +4262,49 @@
       </c>
       <c r="J7" s="10">
         <f ca="1">INDEX($E$1:$O$3,MATCH($I7,$E$1:$E$3,0),MATCH(J$9,$E$3:$O$3,0))</f>
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="K7" s="10">
         <f t="shared" ref="K7:S8" ca="1" si="1">INDEX($E$1:$O$3,MATCH($I7,$E$1:$E$3,0),MATCH(K$9,$E$3:$O$3,0))</f>
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="L7" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="M7" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="N7" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="O7" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="P7" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="R7" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="S7" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="71">
         <f t="shared" ref="A8:B16" ca="1" si="2">INDEX($E$1:$O$3,MATCH(A$6,$E$1:$E$3,0),MATCH($C8,$E$3:$O$3,0))</f>
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B8" s="71" t="str">
         <f t="shared" si="2"/>
@@ -4276,7 +4315,7 @@
       </c>
       <c r="E8" s="73">
         <f t="shared" ref="E8:F16" ca="1" si="3">INDEX($E$1:$O$3,MATCH(E$6,$E$1:$E$3,0),MATCH($G8,$E$3:$O$3,0))</f>
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F8" s="73" t="str">
         <f t="shared" si="3"/>
@@ -4329,10 +4368,10 @@
         <v>Ram6</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="71">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="B9" s="71" t="str">
         <f t="shared" si="2"/>
@@ -4343,7 +4382,7 @@
       </c>
       <c r="E9" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="F9" s="73" t="str">
         <f t="shared" si="3"/>
@@ -4386,10 +4425,10 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="71">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B10" s="71" t="str">
         <f t="shared" si="2"/>
@@ -4400,7 +4439,7 @@
       </c>
       <c r="E10" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F10" s="73" t="str">
         <f t="shared" si="3"/>
@@ -4410,10 +4449,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="71">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B11" s="71" t="str">
         <f t="shared" si="2"/>
@@ -4424,7 +4463,7 @@
       </c>
       <c r="E11" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F11" s="73" t="str">
         <f t="shared" si="3"/>
@@ -4467,10 +4506,10 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="71">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B12" s="71" t="str">
         <f t="shared" si="2"/>
@@ -4481,7 +4520,7 @@
       </c>
       <c r="E12" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F12" s="73" t="str">
         <f t="shared" si="3"/>
@@ -4495,49 +4534,49 @@
       </c>
       <c r="J12" s="10">
         <f ca="1">INDEX($E$1:$O$3,MATCH($I12,$E$1:$E$3,0),MATCH(J$11,$E$3:$O$3,0))</f>
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="K12" s="10">
         <f t="shared" ref="K12:S13" ca="1" si="4">INDEX($E$1:$O$3,MATCH($I12,$E$1:$E$3,0),MATCH(K$11,$E$3:$O$3,0))</f>
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="L12" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="M12" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="N12" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="O12" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="P12" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="R12" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="S12" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="71">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B13" s="71" t="str">
         <f t="shared" si="2"/>
@@ -4548,7 +4587,7 @@
       </c>
       <c r="E13" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F13" s="73" t="str">
         <f t="shared" si="3"/>
@@ -4601,10 +4640,10 @@
         <v>Ram6</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="71">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B14" s="71" t="str">
         <f t="shared" si="2"/>
@@ -4615,7 +4654,7 @@
       </c>
       <c r="E14" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F14" s="73" t="str">
         <f t="shared" si="3"/>
@@ -4625,10 +4664,10 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="71">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="B15" s="71" t="str">
         <f t="shared" si="2"/>
@@ -4639,7 +4678,7 @@
       </c>
       <c r="E15" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="F15" s="73" t="str">
         <f t="shared" si="3"/>
@@ -4649,10 +4688,10 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="71">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="B16" s="71" t="str">
         <f t="shared" si="2"/>
@@ -4663,7 +4702,7 @@
       </c>
       <c r="E16" s="73">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="F16" s="73" t="str">
         <f t="shared" si="3"/>
@@ -4686,9 +4725,9 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C1" s="51" t="s">
         <v>1</v>
       </c>
@@ -4723,51 +4762,51 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C2" s="52" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="49">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="F2" s="11">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G2" s="27">
         <v>10</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" ref="H2:M2" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="J2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K2" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="53" t="s">
         <v>0</v>
       </c>
@@ -4802,7 +4841,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
         <v>14</v>
       </c>
@@ -4810,8 +4849,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
         <v>1</v>
       </c>
@@ -4855,7 +4894,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="str">
         <f>INDEX($C$1:$M$3,MATCH(B$6,$C$1:$C$3,0),MATCH($D7,$C$3:$M$3,0))</f>
         <v>Ram4</v>
@@ -4876,49 +4915,49 @@
       </c>
       <c r="H7" s="29">
         <f t="shared" ref="H7:P8" ca="1" si="1">INDEX($C$1:$M$3,MATCH($F7,$C$1:$C$3,0),MATCH(H$6,$C$3:$M$3,0))</f>
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="I7" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J7" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="K7" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="L7" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="M7" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N7" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="O7" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P7" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="str">
         <f t="shared" ref="B8:C16" si="2">INDEX($C$1:$M$3,MATCH(B$6,$C$1:$C$3,0),MATCH($D8,$C$3:$M$3,0))</f>
         <v>Ram10</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D8" s="17">
         <v>1010</v>
@@ -4967,105 +5006,105 @@
         <v>Ram7</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="str">
         <f t="shared" si="2"/>
         <v>Ram3</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D9" s="17">
         <v>1003</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="str">
         <f t="shared" si="2"/>
         <v>Ram1</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="D10" s="17">
         <v>1001</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="str">
         <f t="shared" si="2"/>
         <v>Ram6</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D11" s="17">
         <v>1006</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="str">
         <f t="shared" si="2"/>
         <v>Ram2</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D12" s="17">
         <v>1002</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="str">
         <f t="shared" si="2"/>
         <v>Ram5</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D13" s="17">
         <v>1005</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="str">
         <f t="shared" si="2"/>
         <v>Ram8</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D14" s="17">
         <v>1008</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="str">
         <f t="shared" si="2"/>
         <v>Ram9</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" s="17">
         <v>1009</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="str">
         <f t="shared" si="2"/>
         <v>Ram7</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D16" s="18">
         <v>1007</v>
@@ -5088,13 +5127,13 @@
       <selection activeCell="K9" sqref="K9:O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="5" width="6.7265625" customWidth="1"/>
-    <col min="9" max="9" width="4.1796875" customWidth="1"/>
+    <col min="4" max="5" width="6.77734375" customWidth="1"/>
+    <col min="9" max="9" width="4.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -5108,13 +5147,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="32">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C2" s="33">
         <v>1001</v>
@@ -5132,25 +5171,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="35">
         <f t="shared" ref="B3:B11" ca="1" si="1">RANDBETWEEN(1,100)</f>
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C3" s="36">
         <v>1002</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="C4" s="36">
         <v>1003</v>
@@ -5159,25 +5198,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="C5" s="36">
         <v>1004</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="C6" s="36">
         <v>1005</v>
@@ -5225,13 +5264,13 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C7" s="36">
         <v>1006</v>
@@ -5249,7 +5288,7 @@
       </c>
       <c r="H7" s="10">
         <f ca="1">INDEX($A$1:$C$11,MATCH($F7,$C$1:$C$11,0),MATCH(H$6,$A$1:$C$1,0))</f>
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>1</v>
@@ -5295,13 +5334,13 @@
         <v>Ram7</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="C8" s="36">
         <v>1007</v>
@@ -5319,59 +5358,59 @@
       </c>
       <c r="H8" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>2</v>
       </c>
       <c r="K8" s="10">
         <f ca="1">INDEX($A$1:$C$11,MATCH(K$6,$C$1:$C$11,0),MATCH($J8,$A$1:$C$1,0))</f>
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="L8" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M8" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="N8" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="O8" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="P8" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="Q8" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="R8" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="S8" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="T8" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C9" s="36">
         <v>1008</v>
@@ -5389,16 +5428,16 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="35">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C10" s="36">
         <v>1009</v>
@@ -5416,16 +5455,16 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="40" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C11" s="42">
         <v>1010</v>
@@ -5443,10 +5482,10 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E12">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -5460,10 +5499,10 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>13</v>
       </c>
@@ -5480,10 +5519,10 @@
       </c>
       <c r="H13" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E14">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -5497,10 +5536,10 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E15">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -5514,10 +5553,10 @@
       </c>
       <c r="H15" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -5534,7 +5573,7 @@
       </c>
       <c r="H16" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
